--- a/DOM_Banner/output/dept0788/Esther M Sternberg_2023.xlsx
+++ b/DOM_Banner/output/dept0788/Esther M Sternberg_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>School of Business, University of Kansas, Lawrence, USA; Department of Management Information Systems, Eller College of Management, University of Arizona, Tucson, USA; HKS Inc, Denver, CO, USA; Center for Innovations in Quality, Effectiveness and Safety (IQuESt), Baylor College of Medicine, Houston, TX, USA; Office of Federal High Performance Green Buildings, U.S. General Services Administration, Washington, USA; Best Buy, Boston, MA, USA; Office of Federal High Performance Green Buildings, U.S. General Services Administration, Washington, USA; Aclima, Inc, San Francisco, USA; Department of Psychology, University of Arizona, Tucson, USA; Aclima, Inc, San Francisco, USA; Office of Federal High Performance Green Buildings, U.S. General Services Administration, Washington, USA; Center to Stream HealthCare in Place (C2SHIP), Michael E. DeBakey Department of Surgery, Baylor College of Medicine, Houston, USA; Institute on Place, Wellbeing, and Performance, University of Arizona, Tucson, USA; Office of Federal High Performance Green Buildings, U.S. General Services Administration, Washington, USA; Department of Management Information Systems, Eller College of Management, University of Arizona, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4315865815</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Discovery of associative patterns between workplace sound level and physiological wellbeing using wearable devices and empirical Bayes modeling</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-01-13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>npj Digital Medicine</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Nature Portfolio</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41746-022-00727-1</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36639725</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/s41746-022-00727-1</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>California State University, East Bay, USA; HKS, Inc, The University of Arizona, USA; U.S. General Services Administration, USA; The University of Arizona, USA; U.S. General Services Administration, USA; U.S. General Services Administration, USA; U.S. General Services Administration, USA; The University of Arizona, USA; The University of Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4312221048</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Personality, workstation type, task focus, and happiness in the workplace</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-04-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of Research in Personality</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jrp.2022.104337</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jrp.2022.104337</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Arizona Center for Integrative Medicine, College of Medicine, University of Arizona, Tucson, AZ 85724, United States. Department of Soil, Water and Environmental Science, University of Arizona, 1177 E 4th St., Tucson AZ 85721, USA; Arizona Center for Integrative Medicine, College of Medicine, University of Arizona, Tucson, AZ 85724, United States; Department of Psychology, Univeristy of Arizona 1503 E. Univeristy Blvd, Tucson, AZ 85721, USA; Arizona Center for Integrative Medicine, College of Medicine, University of Arizona, Tucson, AZ 85724, United States; Department of Soil, Water and Environmental Science, University of Arizona, 1177 E 4th St., Tucson AZ 85721, USA. Arizona Laboratory for Emerging Contaminants, University of Arizona, 1040 East 4th St., Tucson AZ 85721, USA; Department of Soil, Water and Environmental Science, University of Arizona, 1177 E 4th St., Tucson AZ 85721, USA. Arizona Laboratory for Emerging Contaminants, University of Arizona, 1040 East 4th St., Tucson AZ 85721, USA; Arizona Center for Integrative Medicine, College of Medicine, University of Arizona, Tucson, AZ 85724, United States</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W2973142345</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Dynamic Behavior of Cortisol and Cortisol Metabolites in Human Eccrine Sweat</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-06-04</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>International journal of prognostics and health management</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>The Prognostics and Health Management Society</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.36001/ijphm.2019.v10i3.2707</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.36001/ijphm.2019.v10i3.2707</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
